--- a/ProjectAFE.xlsx
+++ b/ProjectAFE.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joachim.Wan\Desktop\OpsProject\dccs_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81FE8EA-04CC-4E9B-8829-667580D060BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2186879-2FC8-4BCE-8FCF-D5240293DDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="43">
   <si>
     <t>Well Name</t>
   </si>
@@ -146,6 +159,9 @@
   </si>
   <si>
     <t>Primary WBS</t>
+  </si>
+  <si>
+    <t>AFE Number</t>
   </si>
 </sst>
 </file>
@@ -485,1607 +501,1889 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>30318813</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>30318813</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>19.25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30318813</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>15.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30318813</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30318813</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>10.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30318813</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>86.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30318813</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30318813</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>13.75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30318813</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>8.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30318813</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30318813</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>30318813</v>
+      </c>
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>33</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>12.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>30318813</v>
+      </c>
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>26.25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30318813</v>
+      </c>
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>70</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>11.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>30318813</v>
+      </c>
+      <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>75</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>11.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>30318813</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>80</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>11.75</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>30318813</v>
+      </c>
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>85</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>33</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>28.75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30318813</v>
+      </c>
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>85</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>33</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>20.25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>30318813</v>
+      </c>
+      <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>90</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>34</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>30318813</v>
+      </c>
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>95</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>34</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>79.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30318813</v>
+      </c>
+      <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>100</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>34</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>28.25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>30318813</v>
+      </c>
+      <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>105</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>34</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>26.75</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>30318813</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>5</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>35</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>30318813</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>36</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>30318813</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>15</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>36</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>21.75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>30318813</v>
+      </c>
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>15</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>36</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>30318813</v>
+      </c>
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>20</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>36</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30318813</v>
+      </c>
+      <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="B29">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>36</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>6.25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30318813</v>
+      </c>
+      <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>36</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>47.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30318813</v>
+      </c>
+      <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>36</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>37.25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30318813</v>
+      </c>
+      <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>40</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>11</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>36</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>15.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30318813</v>
+      </c>
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>45</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>36</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30318813</v>
+      </c>
+      <c r="B34" t="s">
         <v>24</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>50</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>36</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>81.75</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30318813</v>
+      </c>
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>55</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>36</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>15.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30318813</v>
+      </c>
+      <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>60</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>36</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>30318813</v>
+      </c>
+      <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>65</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>36</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>30.25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30318813</v>
+      </c>
+      <c r="B38" t="s">
         <v>24</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>70</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>36</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>12.75</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>30318813</v>
+      </c>
+      <c r="B39" t="s">
         <v>24</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>75</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>36</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>11.25</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>30318813</v>
+      </c>
+      <c r="B40" t="s">
         <v>24</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>80</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>17</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>36</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>11.25001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>30318813</v>
+      </c>
+      <c r="B41" t="s">
         <v>24</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>85</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>18</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>36</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>42.75</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>30318813</v>
+      </c>
+      <c r="B42" t="s">
         <v>24</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>85</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>19</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>36</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>25.75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>30318813</v>
+      </c>
+      <c r="B43" t="s">
         <v>24</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>90</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>20</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>37</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30318813</v>
+      </c>
+      <c r="B44" t="s">
         <v>24</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>95</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>21</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>37</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>92.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>30318813</v>
+      </c>
+      <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>100</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>22</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>37</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>28.25</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>30318813</v>
+      </c>
+      <c r="B46" t="s">
         <v>24</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>105</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>23</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>37</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>20.75</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>30318813</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
         <v>5</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>5</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>30</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>30318813</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
         <v>10</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>29</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>16.75</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>30318813</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
         <v>15</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>7</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>29</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>30318813</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
         <v>20</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>8</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>29</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>5.75</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51">
-        <v>25</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>30318813</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
         <v>8</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>29</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>6.25</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>30318813</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
         <v>30</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>9</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>29</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>49.25</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>30318813</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53">
         <v>35</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>10</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>29</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>48.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>30318813</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54">
         <v>40</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>11</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>29</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>16.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>30318813</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55">
         <v>45</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>11</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>29</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>30318813</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
         <v>50</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>12</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>29</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>66.25</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>30318813</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
         <v>55</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>29</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>12.75</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>30318813</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58">
         <v>60</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>13</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>29</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>15.75</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>30318813</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59">
         <v>65</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>14</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>29</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>30.25</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>30318813</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60">
         <v>70</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>26</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>29</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>16.25</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>30318813</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
         <v>75</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>15</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>29</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>17.75</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>30318813</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62">
         <v>80</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>16</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>29</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>8.75</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>30318813</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63">
         <v>85</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>17</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>29</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>2.75</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>30318813</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64">
         <v>90</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>17</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>29</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>11.25001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>30318813</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65">
         <v>95</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>18</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>29</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>55.25</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>30318813</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66">
         <v>95</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>19</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>29</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>30318813</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67">
         <v>100</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>20</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>31</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>81.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>30318813</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68">
         <v>105</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>21</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>31</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>95.75</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>30318813</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69">
         <v>110</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>22</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>31</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>46.25</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>30318813</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70">
         <v>115</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>23</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>31</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>20.75</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>30318813</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71">
         <v>120</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>27</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>30</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>30318813</v>
+      </c>
+      <c r="B72" t="s">
         <v>28</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>5</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>5</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>38</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>30318813</v>
+      </c>
+      <c r="B73" t="s">
         <v>28</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>10</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>39</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>30318813</v>
+      </c>
+      <c r="B74" t="s">
         <v>28</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>15</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>7</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>39</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>20.5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>30318813</v>
+      </c>
+      <c r="B75" t="s">
         <v>28</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>20</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>8</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>39</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>5.5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>30318813</v>
+      </c>
+      <c r="B76" t="s">
         <v>28</v>
       </c>
-      <c r="B76">
-        <v>25</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="C76">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
         <v>8</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>39</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>6.25</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>30318813</v>
+      </c>
+      <c r="B77" t="s">
         <v>28</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>30</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>9</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>39</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>4.25</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>30318813</v>
+      </c>
+      <c r="B78" t="s">
         <v>28</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>35</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>10</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>39</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>40.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>30318813</v>
+      </c>
+      <c r="B79" t="s">
         <v>28</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>40</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>11</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>39</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>15.25</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>30318813</v>
+      </c>
+      <c r="B80" t="s">
         <v>28</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>45</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>11</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>39</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>30318813</v>
+      </c>
+      <c r="B81" t="s">
         <v>28</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>50</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>12</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>39</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>74.25</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>30318813</v>
+      </c>
+      <c r="B82" t="s">
         <v>28</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>55</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>13</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>39</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>12.75</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>30318813</v>
+      </c>
+      <c r="B83" t="s">
         <v>28</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>60</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>13</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>39</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>15.25</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>30318813</v>
+      </c>
+      <c r="B84" t="s">
         <v>28</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>65</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>14</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>39</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>30318813</v>
+      </c>
+      <c r="B85" t="s">
         <v>28</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>70</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>26</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>39</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>16.25</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>30318813</v>
+      </c>
+      <c r="B86" t="s">
         <v>28</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>75</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>15</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>39</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>17.75</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>30318813</v>
+      </c>
+      <c r="B87" t="s">
         <v>28</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>80</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>16</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>39</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>11.25</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>30318813</v>
+      </c>
+      <c r="B88" t="s">
         <v>28</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>85</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>17</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>39</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>11.25001</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>30318813</v>
+      </c>
+      <c r="B89" t="s">
         <v>28</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>90</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>18</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>39</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>48.25</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>30318813</v>
+      </c>
+      <c r="B90" t="s">
         <v>28</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>90</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>19</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>39</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>23.75</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>30318813</v>
+      </c>
+      <c r="B91" t="s">
         <v>28</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>95</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>20</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>40</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>89.75</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>30318813</v>
+      </c>
+      <c r="B92" t="s">
         <v>28</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>100</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>21</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>40</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>97.75</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>30318813</v>
+      </c>
+      <c r="B93" t="s">
         <v>28</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>105</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>22</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>40</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>3.25</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>30318813</v>
+      </c>
+      <c r="B94" t="s">
         <v>28</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>110</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>23</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>40</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>20.75</v>
       </c>
     </row>
